--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -985,25 +985,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6437768240343348</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L16">
         <v>150</v>
       </c>
       <c r="M16">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1063,25 +1063,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5443425076452599</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L19">
         <v>178</v>
       </c>
       <c r="M19">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="10:17">
